--- a/POJ_Python/videoTutorials/零基础入门学习Python_小甲鱼/第二十七课.xlsx
+++ b/POJ_Python/videoTutorials/零基础入门学习Python_小甲鱼/第二十七课.xlsx
@@ -14,10 +14,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>集合中元素不重复</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; num = {}</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; type(num)</t>
+  </si>
+  <si>
+    <t>&lt;class 'dict'&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; num2 = {1,2,3,4,5}</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; type(num2)</t>
+  </si>
+  <si>
+    <t>&lt;class 'set'&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; num2 = {1,2,3,4,5,5,4,3,2}</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; num2</t>
+  </si>
+  <si>
+    <t>{1, 2, 3, 4, 5}</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; num2[2]</t>
+  </si>
+  <si>
+    <t>Traceback (most recent call last):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "&lt;pyshell#6&gt;", line 1, in &lt;module&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    num2[2]</t>
+  </si>
+  <si>
+    <t>TypeError: 'set' object does not support indexing</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; set1 = set([1,2,3,4,5,5])</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; set1</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; num1 = [1,2,3,4,5,5,3,1,0]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; temp=[]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; for each in num1:</t>
+  </si>
+  <si>
+    <t>if each not in temp:</t>
+  </si>
+  <si>
+    <t>temp.append(each）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>SyntaxError: invalid character in identifier</t>
+  </si>
+  <si>
+    <t>temp.append(each)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; temp</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 0]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; num1 = list(set(num1))</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; num1</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; 1 in num2</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; '1' in num2</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; num2.add(6)</t>
+  </si>
+  <si>
+    <t>{1, 2, 3, 4, 5, 6}</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; num2.remove(5)</t>
+  </si>
+  <si>
+    <t>{1, 2, 3, 4, 6}</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; num3 = frozenset([1,2,3,4,5])</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; num3.add(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "&lt;pyshell#29&gt;", line 1, in &lt;module&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    num3.add(0)</t>
+  </si>
+  <si>
+    <t>AttributeError: 'frozenset' object has no attribute 'add'</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; num3</t>
+  </si>
+  <si>
+    <t>frozenset({1, 2, 3, 4, 5})</t>
   </si>
 </sst>
 </file>
@@ -391,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -407,6 +533,266 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
